--- a/Test.xlsx
+++ b/Test.xlsx
@@ -20,8 +20,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <t>Vorschubgeschwindigkeit in m/min</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <t>Durchmesser 1 in mm</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <t>Durchmesser 2 in mm</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <t>Durchmesser 3 in mm</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <t>Durchmesser 4 in mm</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <t>Durchmesser 5 in mm</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <t>Durchmesser 6 in mm</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <t>Durchmesser 7 in mm</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <t>Durchmesser 8 in mm</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <t>Durchmesser 9 in mm</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>Material</t>
   </si>
@@ -420,15 +480,6 @@
   </si>
   <si>
     <t>Die maximale Spindelleistung der Drehmaschine (in kW)</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>instabil</t>
-  </si>
-  <si>
-    <t>HSS</t>
   </si>
 </sst>
 </file>
@@ -532,13 +583,13 @@
     <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" applyAlignment="1">
+    <xf applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fillId="2" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,6 +1270,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6921,7 +6973,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>112</v>
@@ -6954,7 +7006,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>120</v>
@@ -6965,7 +7017,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>123</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
   <si>
     <t>Material</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>Werkzeugstahl Rm &gt; 750</t>
+  </si>
+  <si>
+    <t>Al Knetlegierung</t>
+  </si>
+  <si>
+    <t>Al Guss</t>
+  </si>
+  <si>
+    <t>Weichholz</t>
+  </si>
+  <si>
+    <t>Hartholz</t>
+  </si>
+  <si>
+    <t>Kunststoff</t>
+  </si>
+  <si>
+    <t>Messing</t>
   </si>
   <si>
     <t>fz (bei ae 0,1 * D) min</t>
@@ -527,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,6 +569,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fillId="2" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
@@ -3110,9 +3137,303 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K8"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.2642857142857"/>
+    <col min="2" max="2" width="10.7142857142857"/>
+    <col min="3" max="3" width="10.7142857142857"/>
+    <col min="4" max="4" width="10.7142857142857"/>
+    <col min="5" max="5" width="10.7142857142857"/>
+    <col min="6" max="6" width="10.7142857142857"/>
+    <col min="7" max="7" width="10.7142857142857"/>
+    <col min="8" max="8" width="10.7142857142857"/>
+    <col min="9" max="9" width="10.7142857142857"/>
+    <col min="10" max="10" width="10.7142857142857"/>
+    <col min="11" max="11" width="10.7142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+      <c r="K1" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.012</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.025</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.038</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.045</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="12">
+        <v>500</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.025</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.064</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.025</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.038</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="12">
+        <v>500</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.025</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.035</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.07</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10">
+        <v>450</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.025</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.055</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.065</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.085</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.095</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.095</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12">
+        <v>550</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.025</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.045</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.085</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="10">
+        <v>350</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.025</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.025</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.056</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.065</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -3136,1256 +3457,1256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>200</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="14">
         <v>220</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="14">
         <v>240</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="14">
         <v>0.14</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="14">
         <v>0.23</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="14">
         <v>0.32</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="14">
         <v>0.08</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="14">
         <v>0.13</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="14">
         <v>0.18</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="14">
         <v>1005</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="14">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="15">
         <v>110</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>130</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>150</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>0.14</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>0.23</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>0.32</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <v>0.08</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="15">
         <v>0.13</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="15">
         <v>0.18</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="15">
         <v>1132</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="15">
         <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>220</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>240</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>260</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>0.14</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14">
         <v>0.23</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <v>0.32</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <v>0.08</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="14">
         <v>0.13</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="14">
         <v>0.18</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
         <v>950</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="14">
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="15">
         <v>120</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="15">
         <v>140</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>160</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>0.14</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="15">
         <v>0.23</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="15">
         <v>0.32</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="15">
         <v>0.08</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="15">
         <v>0.13</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="15">
         <v>0.18</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="15">
         <v>1470</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="15">
         <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="14">
         <v>120</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>140</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>160</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="14">
         <v>0.14</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>0.23</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="14">
         <v>0.32</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <v>0.08</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="14">
         <v>0.13</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="14">
         <v>0.18</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="14">
         <v>1313</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="15">
         <v>100</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="15">
         <v>120</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>140</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>0.14</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>0.23</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="15">
         <v>0.32</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>0.08</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="15">
         <v>0.13</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="15">
         <v>0.18</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="15">
         <v>1313</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>180</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>200</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>220</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="14">
         <v>0.17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="14">
         <v>0.22</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>0.28</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>0.1</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="14">
         <v>0.13</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="14">
         <v>0.16</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="14">
         <v>1820</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="14">
         <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>160</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>180</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>200</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>0.17</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>0.21</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>0.25</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="15">
         <v>0.09</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="15">
         <v>0.12</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="15">
         <v>0.14</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="15">
         <v>1820</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="15">
         <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="14">
         <v>190</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>210</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>230</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>0.17</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>0.22</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>0.28</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>0.1</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>0.13</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="14">
         <v>0.16</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="14">
         <v>2350</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="14">
         <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15">
         <v>150</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="15">
         <v>170</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="15">
         <v>190</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>0.17</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <v>0.19</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>0.21</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="15">
         <v>0.09</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="15">
         <v>0.11</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>0.12</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="15">
         <v>1820</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="15">
         <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="14">
         <v>200</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>350</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>500</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="14">
         <v>0.17</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="14">
         <v>0.24</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <v>0.31</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <v>0.1</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>0.14</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="14">
         <v>0.18</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="14">
         <v>830</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="14">
         <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15">
         <v>180</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>300</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <v>420</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="15">
         <v>0.17</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="15">
         <v>0.24</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="15">
         <v>0.31</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="15">
         <v>0.1</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="15">
         <v>0.14</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="15">
         <v>0.18</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="15">
         <v>544</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="15">
         <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="14">
         <v>600</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>700</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>800</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>0.17</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="14">
         <v>0.24</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="14">
         <v>0.31</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <v>0.1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="14">
         <v>0.14</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="14">
         <v>0.18</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="14">
         <v>830</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="14">
         <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="A15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="15">
         <v>400</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="15">
         <v>500</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <v>600</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>0.17</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="15">
         <v>0.24</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="15">
         <v>0.31</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="15">
         <v>0.1</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="15">
         <v>0.14</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="15">
         <v>0.18</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="15">
         <v>780</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="15">
         <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="14">
         <v>300</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>400</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>500</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>0.17</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="14">
         <v>0.24</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="14">
         <v>0.31</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="14">
         <v>0.1</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="14">
         <v>0.14</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="14">
         <v>0.18</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="14">
         <v>780</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="14">
         <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="15">
         <v>500</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="15">
         <v>600</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>700</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>0.17</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="15">
         <v>0.24</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="15">
         <v>0.31</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="15">
         <v>0.1</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="15">
         <v>0.14</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="15">
         <v>0.18</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="15">
         <v>640</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="15">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="14">
         <v>200</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>350</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>500</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>0.17</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="14">
         <v>0.24</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="14">
         <v>0.31</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="14">
         <v>0.1</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="14">
         <v>0.14</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="14">
         <v>0.18</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="14">
         <v>1</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="15">
         <v>400</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="15">
         <v>500</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <v>600</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>0.17</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="15">
         <v>0.24</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="15">
         <v>0.31</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="15">
         <v>0.1</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="15">
         <v>0.14</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="15">
         <v>0.18</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="14">
         <v>160</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>200</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <v>240</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
         <v>0.17</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="14">
         <v>0.24</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="14">
         <v>0.31</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="14">
         <v>0.1</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="14">
         <v>0.14</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="14">
         <v>0.18</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="14">
         <v>1200</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="14">
         <v>0.18</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="15">
         <v>160</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="15">
         <v>200</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="15">
         <v>240</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="15">
         <v>0.17</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="15">
         <v>0.25</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="15">
         <v>0.31</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="15">
         <v>0.1</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="15">
         <v>0.14</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="15">
         <v>0.18</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="15">
         <v>1200</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="15">
         <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="14">
         <v>200</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>230</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <v>260</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>0.17</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="14">
         <v>0.24</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="14">
         <v>0.31</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="14">
         <v>0.1</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="14">
         <v>0.14</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="14">
         <v>0.18</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="14">
         <v>1780</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="14">
         <v>0.17</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="15">
         <v>160</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="15">
         <v>200</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="15">
         <v>240</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="15">
         <v>0.17</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="15">
         <v>0.24</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="15">
         <v>0.31</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="15">
         <v>0.1</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="15">
         <v>0.14</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="15">
         <v>0.18</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="15">
         <v>2260</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="A24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="14">
         <v>200</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>235</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <v>270</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="14">
         <v>0.17</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="14">
         <v>0.24</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="14">
         <v>0.31</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="14">
         <v>0.1</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="14">
         <v>0.14</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="14">
         <v>0.18</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="14">
         <v>1820</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="14">
         <v>0.22</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="15">
         <v>140</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="15">
         <v>165</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="15">
         <v>190</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="15">
         <v>0.17</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="15">
         <v>0.24</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="15">
         <v>0.31</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="15">
         <v>0.1</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="15">
         <v>0.14</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="15">
         <v>0.18</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="15">
         <v>2290</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="15">
         <v>0.17</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="A26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="14">
         <v>190</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>210</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="14">
         <v>230</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="14">
         <v>0.11</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="14">
         <v>0.15</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="14">
         <v>0.19</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="14">
         <v>0.08</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="14">
         <v>0.1</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="14">
         <v>0.12</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="14">
         <v>1313</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="15">
         <v>130</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="15">
         <v>150</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="15">
         <v>170</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>0.11</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="15">
         <v>0.15</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="15">
         <v>0.19</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="15">
         <v>0.08</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="15">
         <v>0.1</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="15">
         <v>0.12</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="15">
         <v>1313</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="14">
         <v>140</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>165</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>190</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="14">
         <v>0.17</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="14">
         <v>0.24</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="14">
         <v>0.31</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="14">
         <v>0.1</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="14">
         <v>0.14</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="14">
         <v>0.18</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="14">
         <v>2500</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="14">
         <v>0.26</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="15">
         <v>140</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="15">
         <v>165</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="15">
         <v>190</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="15">
         <v>0.14</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="15">
         <v>0.21</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="15">
         <v>0.28</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="15">
         <v>0.08</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="15">
         <v>0.12</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="15">
         <v>0.16</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="15">
         <v>2220</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="15">
         <v>0.26</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="14">
         <v>150</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>175</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="14">
         <v>200</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>0.17</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="14">
         <v>0.24</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="14">
         <v>0.31</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="14">
         <v>0.1</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="14">
         <v>0.14</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="14">
         <v>0.18</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="14">
         <v>1516</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="14">
         <v>0.27</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="15">
         <v>140</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="15">
         <v>165</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="15">
         <v>190</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="15">
         <v>0.17</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="15">
         <v>0.24</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="15">
         <v>0.31</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="15">
         <v>0.1</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="15">
         <v>0.14</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="15">
         <v>0.18</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="15">
         <v>2130</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="15">
         <v>0.18</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="14">
         <v>140</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>165</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>190</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="14">
         <v>0.17</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="14">
         <v>0.24</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="14">
         <v>0.31</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="14">
         <v>0.1</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="14">
         <v>0.14</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="14">
         <v>0.18</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="14">
         <v>1410</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="14">
         <v>0.39</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="15">
         <v>75</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="15">
         <v>100</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="15">
         <v>125</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="15">
         <v>0.14</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="15">
         <v>0.19</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="15">
         <v>0.24</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="15">
         <v>0.08</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="15">
         <v>0.11</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="15">
         <v>0.14</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="15">
         <v>1820</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="15">
         <v>0.26</v>
       </c>
     </row>
@@ -4413,1256 +4734,1256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="E1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="17">
         <v>190</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="17">
         <v>210</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="17">
         <v>230</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="17">
         <v>0.18</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="17">
         <v>0.23</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="17">
         <v>0.28</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="17">
         <v>0.18</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="17">
         <v>0.21</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="17">
         <v>0.24</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="17">
         <v>1005</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="17">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="18">
         <v>200</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="18">
         <v>215</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="18">
         <v>230</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="18">
         <v>0.25</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="18">
         <v>0.29</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="18">
         <v>0.33</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="18">
         <v>0.25</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="18">
         <v>0.29</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="18">
         <v>0.33</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="18">
         <v>1132</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="18">
         <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="17">
         <v>220</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="17">
         <v>235</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="17">
         <v>250</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="17">
         <v>0.25</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>0.29</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="17">
         <v>0.33</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="17">
         <v>0.25</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="17">
         <v>0.29</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="17">
         <v>0.33</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="17">
         <v>950</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="17">
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="18">
         <v>115</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="18">
         <v>130</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>145</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>0.18</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="18">
         <v>0.23</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="18">
         <v>0.28</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="18">
         <v>0.18</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="18">
         <v>0.21</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="18">
         <v>0.24</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="18">
         <v>1470</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="18">
         <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="17">
         <v>190</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="17">
         <v>205</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="17">
         <v>220</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="17">
         <v>0.25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="17">
         <v>0.29</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="17">
         <v>0.33</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="17">
         <v>0.18</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="17">
         <v>0.21</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="17">
         <v>0.24</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="17">
         <v>1313</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="18">
         <v>170</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="18">
         <v>190</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>210</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>0.18</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="18">
         <v>0.23</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>0.28</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="18">
         <v>0.18</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="18">
         <v>0.21</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="18">
         <v>0.24</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="18">
         <v>1313</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="17">
         <v>190</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <v>210</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="17">
         <v>230</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="17">
         <v>0.32</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="17">
         <v>0.34</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="17">
         <v>0.36</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="17">
         <v>0.16</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="17">
         <v>0.19</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="17">
         <v>0.22</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="17">
         <v>1820</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="17">
         <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="18">
         <v>150</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="18">
         <v>170</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>190</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>0.32</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="18">
         <v>0.34</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="18">
         <v>0.36</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="18">
         <v>0.16</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="18">
         <v>0.19</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="18">
         <v>0.22</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="18">
         <v>1820</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="18">
         <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="17">
         <v>200</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="17">
         <v>220</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="17">
         <v>240</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="17">
         <v>0.32</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="17">
         <v>0.34</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="17">
         <v>0.36</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="17">
         <v>0.16</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="17">
         <v>0.19</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="17">
         <v>0.22</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="17">
         <v>2350</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="17">
         <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="18">
         <v>130</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="18">
         <v>145</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>160</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="18">
         <v>0.32</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="18">
         <v>0.34</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="18">
         <v>0.36</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <v>0.16</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="18">
         <v>0.19</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="18">
         <v>0.22</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="18">
         <v>1820</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="18">
         <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="17">
         <v>250</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="17">
         <v>350</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="17">
         <v>500</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="17">
         <v>0.38</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="17">
         <v>0.42</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="17">
         <v>0.46</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="17">
         <v>0.2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="17">
         <v>0.23</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="17">
         <v>0.26</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="17">
         <v>830</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="17">
         <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="18">
         <v>230</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="18">
         <v>300</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>370</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <v>0.38</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="18">
         <v>0.42</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="18">
         <v>0.46</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="18">
         <v>0.2</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="18">
         <v>0.23</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="18">
         <v>0.26</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="18">
         <v>544</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="18">
         <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="17">
         <v>600</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="17">
         <v>725</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="17">
         <v>850</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="17">
         <v>0.38</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="17">
         <v>0.42</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="17">
         <v>0.46</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="17">
         <v>0.2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="17">
         <v>0.23</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="17">
         <v>0.26</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="17">
         <v>830</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="17">
         <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="18">
         <v>400</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="18">
         <v>500</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>600</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <v>0.38</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <v>0.42</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="18">
         <v>0.38</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="18">
         <v>0.2</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="18">
         <v>0.23</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="18">
         <v>0.26</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="18">
         <v>780</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="18">
         <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="17">
         <v>300</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="17">
         <v>350</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="17">
         <v>400</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="17">
         <v>0.38</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="17">
         <v>0.42</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="17">
         <v>0.46</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="17">
         <v>0.2</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="17">
         <v>0.23</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="17">
         <v>0.26</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="17">
         <v>780</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="17">
         <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="18">
         <v>500</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="18">
         <v>550</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>600</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="18">
         <v>0.38</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="18">
         <v>0.42</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="18">
         <v>0.46</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="18">
         <v>0.2</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="18">
         <v>0.23</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="18">
         <v>0.26</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="18">
         <v>640</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="18">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="A18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="17">
         <v>250</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="17">
         <v>350</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="17">
         <v>500</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="17">
         <v>0.38</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="17">
         <v>0.42</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="17">
         <v>0.46</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="17">
         <v>2</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="17">
         <v>0.23</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="17">
         <v>0.26</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="17">
         <v>1</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="18">
         <v>400</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="18">
         <v>500</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>600</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="18">
         <v>0.38</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="18">
         <v>0.42</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="18">
         <v>0.46</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <v>0.2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="18">
         <v>0.23</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="18">
         <v>0.26</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="18">
         <v>1</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="18">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="17">
         <v>230</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="17">
         <v>250</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="17">
         <v>270</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="17">
         <v>0.32</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="17">
         <v>0.34</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="17">
         <v>0.36</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="17">
         <v>0.18</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="17">
         <v>0.21</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="17">
         <v>0.24</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="17">
         <v>1200</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="17">
         <v>0.18</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="18">
         <v>220</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="18">
         <v>240</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>270</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <v>0.27</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <v>0.3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="18">
         <v>0.33</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="18">
         <v>0.16</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="18">
         <v>0.19</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="18">
         <v>0.22</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="18">
         <v>1200</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="18">
         <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="17">
         <v>250</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="17">
         <v>275</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="17">
         <v>300</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="17">
         <v>0.32</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="17">
         <v>0.34</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="17">
         <v>0.36</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="17">
         <v>0.18</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="17">
         <v>0.21</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="17">
         <v>0.24</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="17">
         <v>1780</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="17">
         <v>0.17</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="18">
         <v>220</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="18">
         <v>235</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <v>250</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="18">
         <v>0.32</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="18">
         <v>0.34</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="18">
         <v>0.36</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="18">
         <v>0.18</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="18">
         <v>0.21</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="18">
         <v>0.24</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="18">
         <v>2260</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="14">
+      <c r="A24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="17">
         <v>200</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="17">
         <v>230</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="17">
         <v>260</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="17">
         <v>0.32</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="17">
         <v>0.34</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="17">
         <v>0.36</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="17">
         <v>0.17</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="17">
         <v>0.2</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="17">
         <v>0.23</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="17">
         <v>1820</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="17">
         <v>0.22</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="18">
+        <v>150</v>
+      </c>
+      <c r="C25" s="18">
+        <v>175</v>
+      </c>
+      <c r="D25" s="18">
+        <v>200</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="K25" s="18">
+        <v>2290</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="17">
+        <v>190</v>
+      </c>
+      <c r="C26" s="17">
+        <v>210</v>
+      </c>
+      <c r="D26" s="17">
+        <v>230</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1313</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="18">
+        <v>140</v>
+      </c>
+      <c r="C27" s="18">
+        <v>160</v>
+      </c>
+      <c r="D27" s="18">
+        <v>180</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1313</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="17">
+        <v>190</v>
+      </c>
+      <c r="C28" s="17">
+        <v>220</v>
+      </c>
+      <c r="D28" s="17">
+        <v>250</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="K28" s="17">
+        <v>2500</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18">
+        <v>150</v>
+      </c>
+      <c r="C29" s="18">
+        <v>175</v>
+      </c>
+      <c r="D29" s="18">
+        <v>200</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="K29" s="18">
+        <v>2220</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="17">
+        <v>200</v>
+      </c>
+      <c r="C30" s="17">
+        <v>230</v>
+      </c>
+      <c r="D30" s="17">
+        <v>260</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="K30" s="17">
+        <v>1516</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="18">
+        <v>150</v>
+      </c>
+      <c r="C31" s="18">
+        <v>175</v>
+      </c>
+      <c r="D31" s="18">
+        <v>200</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="K31" s="18">
+        <v>2130</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="17">
+        <v>120</v>
+      </c>
+      <c r="C32" s="17">
+        <v>135</v>
+      </c>
+      <c r="D32" s="17">
+        <v>150</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="K32" s="17">
+        <v>1410</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="18">
         <v>95</v>
       </c>
-      <c r="B25" s="15">
-        <v>150</v>
-      </c>
-      <c r="C25" s="15">
-        <v>175</v>
-      </c>
-      <c r="D25" s="15">
-        <v>200</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="C33" s="18">
+        <v>105</v>
+      </c>
+      <c r="D33" s="18">
+        <v>115</v>
+      </c>
+      <c r="E33" s="18">
         <v>0.32</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F33" s="18">
         <v>0.34</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G33" s="18">
         <v>0.36</v>
       </c>
-      <c r="H25" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="J25" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="K25" s="15">
-        <v>2290</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="H33" s="18">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="14">
-        <v>190</v>
-      </c>
-      <c r="C26" s="14">
-        <v>210</v>
-      </c>
-      <c r="D26" s="14">
-        <v>230</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0.17</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="I33" s="18">
         <v>0.2</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J33" s="18">
         <v>0.23</v>
       </c>
-      <c r="K26" s="14">
-        <v>1313</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="15">
-        <v>140</v>
-      </c>
-      <c r="C27" s="15">
-        <v>160</v>
-      </c>
-      <c r="D27" s="15">
-        <v>180</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.34</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="J27" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="K27" s="15">
-        <v>1313</v>
-      </c>
-      <c r="L27" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="14">
-        <v>190</v>
-      </c>
-      <c r="C28" s="14">
-        <v>220</v>
-      </c>
-      <c r="D28" s="14">
-        <v>250</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0.17</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="K28" s="14">
-        <v>2500</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="15">
-        <v>150</v>
-      </c>
-      <c r="C29" s="15">
-        <v>175</v>
-      </c>
-      <c r="D29" s="15">
-        <v>200</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.34</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="I29" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0.23</v>
-      </c>
-      <c r="K29" s="15">
-        <v>2220</v>
-      </c>
-      <c r="L29" s="15">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="14">
-        <v>200</v>
-      </c>
-      <c r="C30" s="14">
-        <v>230</v>
-      </c>
-      <c r="D30" s="14">
-        <v>260</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0.17</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="K30" s="14">
-        <v>1516</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="15">
-        <v>150</v>
-      </c>
-      <c r="C31" s="15">
-        <v>175</v>
-      </c>
-      <c r="D31" s="15">
-        <v>200</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.34</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="I31" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J31" s="15">
-        <v>0.23</v>
-      </c>
-      <c r="K31" s="15">
-        <v>2130</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="14">
-        <v>120</v>
-      </c>
-      <c r="C32" s="14">
-        <v>135</v>
-      </c>
-      <c r="D32" s="14">
-        <v>150</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="F32" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0.17</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="J32" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="K32" s="14">
-        <v>1410</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="15">
-        <v>95</v>
-      </c>
-      <c r="C33" s="15">
-        <v>105</v>
-      </c>
-      <c r="D33" s="15">
-        <v>115</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.34</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0.23</v>
-      </c>
-      <c r="K33" s="15">
+      <c r="K33" s="18">
         <v>1820</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="18">
         <v>0.26</v>
       </c>
     </row>
@@ -5690,1256 +6011,1256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20">
+        <v>210</v>
+      </c>
+      <c r="C2" s="20">
+        <v>270</v>
+      </c>
+      <c r="D2" s="20">
+        <v>330</v>
+      </c>
+      <c r="E2" s="20">
+        <v>160</v>
+      </c>
+      <c r="F2" s="20">
+        <v>210</v>
+      </c>
+      <c r="G2" s="20">
+        <v>260</v>
+      </c>
+      <c r="H2" s="20">
+        <v>250</v>
+      </c>
+      <c r="I2" s="20">
+        <v>320</v>
+      </c>
+      <c r="J2" s="20">
+        <v>410</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1005</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="21">
+        <v>160</v>
+      </c>
+      <c r="C3" s="21">
+        <v>200</v>
+      </c>
+      <c r="D3" s="21">
+        <v>250</v>
+      </c>
+      <c r="E3" s="21">
+        <v>140</v>
+      </c>
+      <c r="F3" s="21">
+        <v>170</v>
+      </c>
+      <c r="G3" s="21">
+        <v>210</v>
+      </c>
+      <c r="H3" s="21">
+        <v>180</v>
+      </c>
+      <c r="I3" s="21">
+        <v>230</v>
+      </c>
+      <c r="J3" s="21">
+        <v>300</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1132</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="20">
+        <v>300</v>
+      </c>
+      <c r="C4" s="20">
+        <v>370</v>
+      </c>
+      <c r="D4" s="20">
+        <v>440</v>
+      </c>
+      <c r="E4" s="20">
+        <v>230</v>
+      </c>
+      <c r="F4" s="20">
+        <v>280</v>
+      </c>
+      <c r="G4" s="20">
+        <v>330</v>
+      </c>
+      <c r="H4" s="20">
+        <v>380</v>
+      </c>
+      <c r="I4" s="20">
+        <v>450</v>
+      </c>
+      <c r="J4" s="20">
+        <v>520</v>
+      </c>
+      <c r="K4" s="20">
+        <v>950</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="21">
+        <v>195</v>
+      </c>
+      <c r="C5" s="21">
+        <v>250</v>
+      </c>
+      <c r="D5" s="21">
+        <v>305</v>
+      </c>
+      <c r="E5" s="21">
+        <v>140</v>
+      </c>
+      <c r="F5" s="21">
+        <v>190</v>
+      </c>
+      <c r="G5" s="21">
+        <v>240</v>
+      </c>
+      <c r="H5" s="21">
+        <v>230</v>
+      </c>
+      <c r="I5" s="21">
+        <v>300</v>
+      </c>
+      <c r="J5" s="21">
+        <v>370</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1470</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="20">
+        <v>190</v>
+      </c>
+      <c r="C6" s="20">
+        <v>235</v>
+      </c>
+      <c r="D6" s="20">
+        <v>280</v>
+      </c>
+      <c r="E6" s="20">
+        <v>140</v>
+      </c>
+      <c r="F6" s="20">
+        <v>170</v>
+      </c>
+      <c r="G6" s="20">
+        <v>200</v>
+      </c>
+      <c r="H6" s="20">
+        <v>240</v>
+      </c>
+      <c r="I6" s="20">
+        <v>300</v>
+      </c>
+      <c r="J6" s="20">
+        <v>370</v>
+      </c>
+      <c r="K6" s="20">
+        <v>1313</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="21">
+        <v>150</v>
+      </c>
+      <c r="C7" s="21">
+        <v>190</v>
+      </c>
+      <c r="D7" s="21">
+        <v>230</v>
+      </c>
+      <c r="E7" s="21">
+        <v>100</v>
+      </c>
+      <c r="F7" s="21">
+        <v>130</v>
+      </c>
+      <c r="G7" s="21">
+        <v>160</v>
+      </c>
+      <c r="H7" s="21">
+        <v>200</v>
+      </c>
+      <c r="I7" s="21">
+        <v>260</v>
+      </c>
+      <c r="J7" s="21">
+        <v>330</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1313</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="20">
+        <v>140</v>
+      </c>
+      <c r="C8" s="20">
+        <v>170</v>
+      </c>
+      <c r="D8" s="20">
+        <v>200</v>
+      </c>
+      <c r="E8" s="20">
+        <v>90</v>
+      </c>
+      <c r="F8" s="20">
+        <v>110</v>
+      </c>
+      <c r="G8" s="20">
+        <v>130</v>
+      </c>
+      <c r="H8" s="20">
+        <v>200</v>
+      </c>
+      <c r="I8" s="20">
+        <v>230</v>
+      </c>
+      <c r="J8" s="20">
+        <v>260</v>
+      </c>
+      <c r="K8" s="20">
+        <v>1820</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="21">
+        <v>100</v>
+      </c>
+      <c r="C9" s="21">
+        <v>120</v>
+      </c>
+      <c r="D9" s="21">
+        <v>140</v>
+      </c>
+      <c r="E9" s="21">
+        <v>70</v>
+      </c>
+      <c r="F9" s="21">
+        <v>90</v>
+      </c>
+      <c r="G9" s="21">
+        <v>110</v>
+      </c>
+      <c r="H9" s="21">
+        <v>130</v>
+      </c>
+      <c r="I9" s="21">
+        <v>150</v>
+      </c>
+      <c r="J9" s="21">
+        <v>170</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1820</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="20">
+        <v>180</v>
+      </c>
+      <c r="C10" s="20">
+        <v>215</v>
+      </c>
+      <c r="D10" s="20">
+        <v>240</v>
+      </c>
+      <c r="E10" s="20">
+        <v>160</v>
+      </c>
+      <c r="F10" s="20">
+        <v>180</v>
+      </c>
+      <c r="G10" s="20">
+        <v>200</v>
+      </c>
+      <c r="H10" s="20">
+        <v>230</v>
+      </c>
+      <c r="I10" s="20">
+        <v>250</v>
+      </c>
+      <c r="J10" s="20">
+        <v>270</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2350</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="21">
+        <v>130</v>
+      </c>
+      <c r="C11" s="21">
+        <v>160</v>
+      </c>
+      <c r="D11" s="21">
+        <v>190</v>
+      </c>
+      <c r="E11" s="21">
+        <v>110</v>
+      </c>
+      <c r="F11" s="21">
+        <v>130</v>
+      </c>
+      <c r="G11" s="21">
+        <v>150</v>
+      </c>
+      <c r="H11" s="21">
+        <v>150</v>
+      </c>
+      <c r="I11" s="21">
+        <v>190</v>
+      </c>
+      <c r="J11" s="21">
+        <v>230</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1820</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="20">
+        <v>310</v>
+      </c>
+      <c r="C12" s="20">
+        <v>400</v>
+      </c>
+      <c r="D12" s="20">
+        <v>490</v>
+      </c>
+      <c r="E12" s="20">
+        <v>300</v>
+      </c>
+      <c r="F12" s="20">
+        <v>360</v>
+      </c>
+      <c r="G12" s="20">
+        <v>420</v>
+      </c>
+      <c r="H12" s="20">
+        <v>450</v>
+      </c>
+      <c r="I12" s="20">
+        <v>550</v>
+      </c>
+      <c r="J12" s="20">
+        <v>650</v>
+      </c>
+      <c r="K12" s="20">
+        <v>830</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="21">
+        <v>290</v>
+      </c>
+      <c r="C13" s="21">
+        <v>330</v>
+      </c>
+      <c r="D13" s="21">
+        <v>420</v>
+      </c>
+      <c r="E13" s="21">
+        <v>200</v>
+      </c>
+      <c r="F13" s="21">
+        <v>270</v>
+      </c>
+      <c r="G13" s="21">
+        <v>340</v>
+      </c>
+      <c r="H13" s="21">
+        <v>300</v>
+      </c>
+      <c r="I13" s="21">
+        <v>400</v>
+      </c>
+      <c r="J13" s="21">
+        <v>500</v>
+      </c>
+      <c r="K13" s="21">
+        <v>544</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="20">
+        <v>350</v>
+      </c>
+      <c r="C14" s="20">
+        <v>450</v>
+      </c>
+      <c r="D14" s="20">
+        <v>560</v>
+      </c>
+      <c r="E14" s="20">
+        <v>380</v>
+      </c>
+      <c r="F14" s="20">
+        <v>450</v>
+      </c>
+      <c r="G14" s="20">
+        <v>520</v>
+      </c>
+      <c r="H14" s="20">
+        <v>600</v>
+      </c>
+      <c r="I14" s="20">
+        <v>700</v>
+      </c>
+      <c r="J14" s="20">
+        <v>800</v>
+      </c>
+      <c r="K14" s="20">
+        <v>830</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="21">
+        <v>200</v>
+      </c>
+      <c r="C15" s="21">
+        <v>320</v>
+      </c>
+      <c r="D15" s="21">
+        <v>440</v>
+      </c>
+      <c r="E15" s="21">
+        <v>240</v>
+      </c>
+      <c r="F15" s="21">
+        <v>300</v>
+      </c>
+      <c r="G15" s="21">
+        <v>360</v>
+      </c>
+      <c r="H15" s="21">
+        <v>400</v>
+      </c>
+      <c r="I15" s="21">
+        <v>500</v>
+      </c>
+      <c r="J15" s="21">
+        <v>600</v>
+      </c>
+      <c r="K15" s="21">
+        <v>780</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="20">
+        <v>200</v>
+      </c>
+      <c r="C16" s="20">
+        <v>230</v>
+      </c>
+      <c r="D16" s="20">
+        <v>260</v>
+      </c>
+      <c r="E16" s="20">
+        <v>130</v>
+      </c>
+      <c r="F16" s="20">
+        <v>150</v>
+      </c>
+      <c r="G16" s="20">
+        <v>170</v>
+      </c>
+      <c r="H16" s="20">
+        <v>280</v>
+      </c>
+      <c r="I16" s="20">
+        <v>310</v>
+      </c>
+      <c r="J16" s="20">
+        <v>340</v>
+      </c>
+      <c r="K16" s="20">
+        <v>780</v>
+      </c>
+      <c r="L16" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="21">
+        <v>320</v>
+      </c>
+      <c r="C17" s="21">
+        <v>355</v>
+      </c>
+      <c r="D17" s="21">
+        <v>390</v>
+      </c>
+      <c r="E17" s="21">
+        <v>250</v>
+      </c>
+      <c r="F17" s="21">
+        <v>270</v>
+      </c>
+      <c r="G17" s="21">
+        <v>300</v>
+      </c>
+      <c r="H17" s="21">
+        <v>400</v>
+      </c>
+      <c r="I17" s="21">
+        <v>440</v>
+      </c>
+      <c r="J17" s="21">
+        <v>480</v>
+      </c>
+      <c r="K17" s="21">
+        <v>640</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B18" s="20">
+        <v>230</v>
+      </c>
+      <c r="C18" s="20">
+        <v>320</v>
+      </c>
+      <c r="D18" s="20">
+        <v>410</v>
+      </c>
+      <c r="E18" s="20">
+        <v>190</v>
+      </c>
+      <c r="F18" s="20">
+        <v>220</v>
+      </c>
+      <c r="G18" s="20">
+        <v>310</v>
+      </c>
+      <c r="H18" s="20">
+        <v>340</v>
+      </c>
+      <c r="I18" s="20">
+        <v>420</v>
+      </c>
+      <c r="J18" s="20">
+        <v>500</v>
+      </c>
+      <c r="K18" s="20">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="B19" s="21">
+        <v>340</v>
+      </c>
+      <c r="C19" s="21">
+        <v>430</v>
+      </c>
+      <c r="D19" s="21">
+        <v>520</v>
+      </c>
+      <c r="E19" s="21">
+        <v>270</v>
+      </c>
+      <c r="F19" s="21">
+        <v>360</v>
+      </c>
+      <c r="G19" s="21">
+        <v>450</v>
+      </c>
+      <c r="H19" s="21">
+        <v>400</v>
+      </c>
+      <c r="I19" s="21">
+        <v>500</v>
+      </c>
+      <c r="J19" s="21">
+        <v>600</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="20">
+        <v>180</v>
+      </c>
+      <c r="C20" s="20">
+        <v>250</v>
+      </c>
+      <c r="D20" s="20">
+        <v>320</v>
+      </c>
+      <c r="E20" s="20">
+        <v>130</v>
+      </c>
+      <c r="F20" s="20">
+        <v>200</v>
+      </c>
+      <c r="G20" s="20">
+        <v>270</v>
+      </c>
+      <c r="H20" s="20">
+        <v>240</v>
+      </c>
+      <c r="I20" s="20">
+        <v>300</v>
+      </c>
+      <c r="J20" s="20">
+        <v>360</v>
+      </c>
+      <c r="K20" s="20">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="21">
+        <v>130</v>
+      </c>
+      <c r="C21" s="21">
+        <v>200</v>
+      </c>
+      <c r="D21" s="21">
+        <v>270</v>
+      </c>
+      <c r="E21" s="21">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F21" s="21">
+        <v>160</v>
+      </c>
+      <c r="G21" s="21">
+        <v>220</v>
+      </c>
+      <c r="H21" s="21">
+        <v>200</v>
+      </c>
+      <c r="I21" s="21">
+        <v>250</v>
+      </c>
+      <c r="J21" s="21">
+        <v>360</v>
+      </c>
+      <c r="K21" s="21">
+        <v>1200</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="20">
+        <v>210</v>
+      </c>
+      <c r="C22" s="20">
+        <v>280</v>
+      </c>
+      <c r="D22" s="20">
+        <v>350</v>
+      </c>
+      <c r="E22" s="20">
+        <v>150</v>
+      </c>
+      <c r="F22" s="20">
+        <v>220</v>
+      </c>
+      <c r="G22" s="20">
+        <v>300</v>
+      </c>
+      <c r="H22" s="20">
+        <v>280</v>
+      </c>
+      <c r="I22" s="20">
+        <v>340</v>
+      </c>
+      <c r="J22" s="20">
+        <v>400</v>
+      </c>
+      <c r="K22" s="20">
+        <v>1780</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="21">
+        <v>160</v>
+      </c>
+      <c r="C23" s="21">
+        <v>230</v>
+      </c>
+      <c r="D23" s="21">
+        <v>300</v>
+      </c>
+      <c r="E23" s="21">
+        <v>100</v>
+      </c>
+      <c r="F23" s="21">
+        <v>170</v>
+      </c>
+      <c r="G23" s="21">
+        <v>240</v>
+      </c>
+      <c r="H23" s="21">
+        <v>220</v>
+      </c>
+      <c r="I23" s="21">
+        <v>290</v>
+      </c>
+      <c r="J23" s="21">
+        <v>350</v>
+      </c>
+      <c r="K23" s="21">
+        <v>2260</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="20">
+        <v>200</v>
+      </c>
+      <c r="C24" s="20">
+        <v>270</v>
+      </c>
+      <c r="D24" s="20">
+        <v>320</v>
+      </c>
+      <c r="E24" s="20">
+        <v>150</v>
+      </c>
+      <c r="F24" s="20">
+        <v>210</v>
+      </c>
+      <c r="G24" s="20">
+        <v>260</v>
+      </c>
+      <c r="H24" s="20">
+        <v>250</v>
+      </c>
+      <c r="I24" s="20">
+        <v>320</v>
+      </c>
+      <c r="J24" s="20">
+        <v>360</v>
+      </c>
+      <c r="K24" s="20">
+        <v>1820</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="B25" s="21">
+        <v>160</v>
+      </c>
+      <c r="C25" s="21">
+        <v>220</v>
+      </c>
+      <c r="D25" s="21">
+        <v>270</v>
+      </c>
+      <c r="E25" s="21">
+        <v>110</v>
+      </c>
+      <c r="F25" s="21">
+        <v>160</v>
+      </c>
+      <c r="G25" s="21">
+        <v>210</v>
+      </c>
+      <c r="H25" s="21">
+        <v>200</v>
+      </c>
+      <c r="I25" s="21">
+        <v>270</v>
+      </c>
+      <c r="J25" s="21">
+        <v>340</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2290</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="B26" s="20">
+        <v>140</v>
+      </c>
+      <c r="C26" s="20">
+        <v>180</v>
+      </c>
+      <c r="D26" s="20">
+        <v>220</v>
+      </c>
+      <c r="E26" s="20">
+        <v>105</v>
+      </c>
+      <c r="F26" s="20">
+        <v>155</v>
+      </c>
+      <c r="G26" s="20">
+        <v>180</v>
+      </c>
+      <c r="H26" s="20">
+        <v>160</v>
+      </c>
+      <c r="I26" s="20">
+        <v>200</v>
+      </c>
+      <c r="J26" s="20">
+        <v>240</v>
+      </c>
+      <c r="K26" s="20">
+        <v>1313</v>
+      </c>
+      <c r="L26" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17">
-        <v>210</v>
-      </c>
-      <c r="C2" s="17">
-        <v>270</v>
-      </c>
-      <c r="D2" s="17">
-        <v>330</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="B27" s="21">
+        <v>100</v>
+      </c>
+      <c r="C27" s="21">
+        <v>135</v>
+      </c>
+      <c r="D27" s="21">
+        <v>170</v>
+      </c>
+      <c r="E27" s="21">
+        <v>80</v>
+      </c>
+      <c r="F27" s="21">
+        <v>110</v>
+      </c>
+      <c r="G27" s="21">
+        <v>140</v>
+      </c>
+      <c r="H27" s="21">
+        <v>130</v>
+      </c>
+      <c r="I27" s="21">
         <v>160</v>
       </c>
-      <c r="F2" s="17">
-        <v>210</v>
-      </c>
-      <c r="G2" s="17">
-        <v>260</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="J27" s="21">
+        <v>190</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1313</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="20">
+        <v>100</v>
+      </c>
+      <c r="C28" s="20">
+        <v>160</v>
+      </c>
+      <c r="D28" s="20">
+        <v>220</v>
+      </c>
+      <c r="E28" s="20">
+        <v>90</v>
+      </c>
+      <c r="F28" s="20">
+        <v>130</v>
+      </c>
+      <c r="G28" s="20">
+        <v>180</v>
+      </c>
+      <c r="H28" s="20">
+        <v>125</v>
+      </c>
+      <c r="I28" s="20">
+        <v>185</v>
+      </c>
+      <c r="J28" s="20">
+        <v>245</v>
+      </c>
+      <c r="K28" s="20">
+        <v>2500</v>
+      </c>
+      <c r="L28" s="20">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="21">
+        <v>80</v>
+      </c>
+      <c r="C29" s="21">
+        <v>130</v>
+      </c>
+      <c r="D29" s="21">
+        <v>180</v>
+      </c>
+      <c r="E29" s="21">
+        <v>70</v>
+      </c>
+      <c r="F29" s="21">
+        <v>110</v>
+      </c>
+      <c r="G29" s="21">
+        <v>160</v>
+      </c>
+      <c r="H29" s="21">
+        <v>100</v>
+      </c>
+      <c r="I29" s="21">
+        <v>150</v>
+      </c>
+      <c r="J29" s="21">
+        <v>200</v>
+      </c>
+      <c r="K29" s="21">
+        <v>2220</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="20">
+        <v>180</v>
+      </c>
+      <c r="C30" s="20">
         <v>250</v>
       </c>
-      <c r="I2" s="17">
+      <c r="D30" s="20">
         <v>320</v>
       </c>
-      <c r="J2" s="17">
-        <v>410</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1005</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="E30" s="20">
+        <v>120</v>
+      </c>
+      <c r="F30" s="20">
+        <v>190</v>
+      </c>
+      <c r="G30" s="20">
+        <v>240</v>
+      </c>
+      <c r="H30" s="20">
+        <v>220</v>
+      </c>
+      <c r="I30" s="20">
+        <v>300</v>
+      </c>
+      <c r="J30" s="20">
+        <v>380</v>
+      </c>
+      <c r="K30" s="20">
+        <v>1516</v>
+      </c>
+      <c r="L30" s="20">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="21">
+        <v>110</v>
+      </c>
+      <c r="C31" s="21">
+        <v>200</v>
+      </c>
+      <c r="D31" s="21">
+        <v>280</v>
+      </c>
+      <c r="E31" s="21">
+        <v>110</v>
+      </c>
+      <c r="F31" s="21">
+        <v>150</v>
+      </c>
+      <c r="G31" s="21">
+        <v>200</v>
+      </c>
+      <c r="H31" s="21">
+        <v>190</v>
+      </c>
+      <c r="I31" s="21">
+        <v>250</v>
+      </c>
+      <c r="J31" s="21">
+        <v>310</v>
+      </c>
+      <c r="K31" s="21">
+        <v>2130</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="20">
+        <v>95</v>
+      </c>
+      <c r="C32" s="20">
+        <v>145</v>
+      </c>
+      <c r="D32" s="20">
+        <v>195</v>
+      </c>
+      <c r="E32" s="20">
+        <v>85</v>
+      </c>
+      <c r="F32" s="20">
+        <v>125</v>
+      </c>
+      <c r="G32" s="20">
+        <v>170</v>
+      </c>
+      <c r="H32" s="20">
+        <v>115</v>
+      </c>
+      <c r="I32" s="20">
+        <v>165</v>
+      </c>
+      <c r="J32" s="20">
+        <v>215</v>
+      </c>
+      <c r="K32" s="20">
+        <v>1410</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="21">
+        <v>60</v>
+      </c>
+      <c r="C33" s="21">
+        <v>110</v>
+      </c>
+      <c r="D33" s="21">
         <v>160</v>
       </c>
-      <c r="C3" s="18">
-        <v>200</v>
-      </c>
-      <c r="D3" s="18">
-        <v>250</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="E33" s="21">
+        <v>40</v>
+      </c>
+      <c r="F33" s="21">
+        <v>80</v>
+      </c>
+      <c r="G33" s="21">
+        <v>120</v>
+      </c>
+      <c r="H33" s="21">
+        <v>100</v>
+      </c>
+      <c r="I33" s="21">
         <v>140</v>
       </c>
-      <c r="F3" s="18">
-        <v>170</v>
-      </c>
-      <c r="G3" s="18">
-        <v>210</v>
-      </c>
-      <c r="H3" s="18">
+      <c r="J33" s="21">
         <v>180</v>
       </c>
-      <c r="I3" s="18">
-        <v>230</v>
-      </c>
-      <c r="J3" s="18">
-        <v>300</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1132</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="17">
-        <v>300</v>
-      </c>
-      <c r="C4" s="17">
-        <v>370</v>
-      </c>
-      <c r="D4" s="17">
-        <v>440</v>
-      </c>
-      <c r="E4" s="17">
-        <v>230</v>
-      </c>
-      <c r="F4" s="17">
-        <v>280</v>
-      </c>
-      <c r="G4" s="17">
-        <v>330</v>
-      </c>
-      <c r="H4" s="17">
-        <v>380</v>
-      </c>
-      <c r="I4" s="17">
-        <v>450</v>
-      </c>
-      <c r="J4" s="17">
-        <v>520</v>
-      </c>
-      <c r="K4" s="17">
-        <v>950</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="18">
-        <v>195</v>
-      </c>
-      <c r="C5" s="18">
-        <v>250</v>
-      </c>
-      <c r="D5" s="18">
-        <v>305</v>
-      </c>
-      <c r="E5" s="18">
-        <v>140</v>
-      </c>
-      <c r="F5" s="18">
-        <v>190</v>
-      </c>
-      <c r="G5" s="18">
-        <v>240</v>
-      </c>
-      <c r="H5" s="18">
-        <v>230</v>
-      </c>
-      <c r="I5" s="18">
-        <v>300</v>
-      </c>
-      <c r="J5" s="18">
-        <v>370</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1470</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="17">
-        <v>190</v>
-      </c>
-      <c r="C6" s="17">
-        <v>235</v>
-      </c>
-      <c r="D6" s="17">
-        <v>280</v>
-      </c>
-      <c r="E6" s="17">
-        <v>140</v>
-      </c>
-      <c r="F6" s="17">
-        <v>170</v>
-      </c>
-      <c r="G6" s="17">
-        <v>200</v>
-      </c>
-      <c r="H6" s="17">
-        <v>240</v>
-      </c>
-      <c r="I6" s="17">
-        <v>300</v>
-      </c>
-      <c r="J6" s="17">
-        <v>370</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1313</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="18">
-        <v>150</v>
-      </c>
-      <c r="C7" s="18">
-        <v>190</v>
-      </c>
-      <c r="D7" s="18">
-        <v>230</v>
-      </c>
-      <c r="E7" s="18">
-        <v>100</v>
-      </c>
-      <c r="F7" s="18">
-        <v>130</v>
-      </c>
-      <c r="G7" s="18">
-        <v>160</v>
-      </c>
-      <c r="H7" s="18">
-        <v>200</v>
-      </c>
-      <c r="I7" s="18">
-        <v>260</v>
-      </c>
-      <c r="J7" s="18">
-        <v>330</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1313</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="17">
-        <v>140</v>
-      </c>
-      <c r="C8" s="17">
-        <v>170</v>
-      </c>
-      <c r="D8" s="17">
-        <v>200</v>
-      </c>
-      <c r="E8" s="17">
-        <v>90</v>
-      </c>
-      <c r="F8" s="17">
-        <v>110</v>
-      </c>
-      <c r="G8" s="17">
-        <v>130</v>
-      </c>
-      <c r="H8" s="17">
-        <v>200</v>
-      </c>
-      <c r="I8" s="17">
-        <v>230</v>
-      </c>
-      <c r="J8" s="17">
-        <v>260</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="K33" s="21">
         <v>1820</v>
       </c>
-      <c r="L8" s="17">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18">
-        <v>100</v>
-      </c>
-      <c r="C9" s="18">
-        <v>120</v>
-      </c>
-      <c r="D9" s="18">
-        <v>140</v>
-      </c>
-      <c r="E9" s="18">
-        <v>70</v>
-      </c>
-      <c r="F9" s="18">
-        <v>90</v>
-      </c>
-      <c r="G9" s="18">
-        <v>110</v>
-      </c>
-      <c r="H9" s="18">
-        <v>130</v>
-      </c>
-      <c r="I9" s="18">
-        <v>150</v>
-      </c>
-      <c r="J9" s="18">
-        <v>170</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1820</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="17">
-        <v>180</v>
-      </c>
-      <c r="C10" s="17">
-        <v>215</v>
-      </c>
-      <c r="D10" s="17">
-        <v>240</v>
-      </c>
-      <c r="E10" s="17">
-        <v>160</v>
-      </c>
-      <c r="F10" s="17">
-        <v>180</v>
-      </c>
-      <c r="G10" s="17">
-        <v>200</v>
-      </c>
-      <c r="H10" s="17">
-        <v>230</v>
-      </c>
-      <c r="I10" s="17">
-        <v>250</v>
-      </c>
-      <c r="J10" s="17">
-        <v>270</v>
-      </c>
-      <c r="K10" s="17">
-        <v>2350</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="18">
-        <v>130</v>
-      </c>
-      <c r="C11" s="18">
-        <v>160</v>
-      </c>
-      <c r="D11" s="18">
-        <v>190</v>
-      </c>
-      <c r="E11" s="18">
-        <v>110</v>
-      </c>
-      <c r="F11" s="18">
-        <v>130</v>
-      </c>
-      <c r="G11" s="18">
-        <v>150</v>
-      </c>
-      <c r="H11" s="18">
-        <v>150</v>
-      </c>
-      <c r="I11" s="18">
-        <v>190</v>
-      </c>
-      <c r="J11" s="18">
-        <v>230</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1820</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="17">
-        <v>310</v>
-      </c>
-      <c r="C12" s="17">
-        <v>400</v>
-      </c>
-      <c r="D12" s="17">
-        <v>490</v>
-      </c>
-      <c r="E12" s="17">
-        <v>300</v>
-      </c>
-      <c r="F12" s="17">
-        <v>360</v>
-      </c>
-      <c r="G12" s="17">
-        <v>420</v>
-      </c>
-      <c r="H12" s="17">
-        <v>450</v>
-      </c>
-      <c r="I12" s="17">
-        <v>550</v>
-      </c>
-      <c r="J12" s="17">
-        <v>650</v>
-      </c>
-      <c r="K12" s="17">
-        <v>830</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="18">
-        <v>290</v>
-      </c>
-      <c r="C13" s="18">
-        <v>330</v>
-      </c>
-      <c r="D13" s="18">
-        <v>420</v>
-      </c>
-      <c r="E13" s="18">
-        <v>200</v>
-      </c>
-      <c r="F13" s="18">
-        <v>270</v>
-      </c>
-      <c r="G13" s="18">
-        <v>340</v>
-      </c>
-      <c r="H13" s="18">
-        <v>300</v>
-      </c>
-      <c r="I13" s="18">
-        <v>400</v>
-      </c>
-      <c r="J13" s="18">
-        <v>500</v>
-      </c>
-      <c r="K13" s="18">
-        <v>544</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="17">
-        <v>350</v>
-      </c>
-      <c r="C14" s="17">
-        <v>450</v>
-      </c>
-      <c r="D14" s="17">
-        <v>560</v>
-      </c>
-      <c r="E14" s="17">
-        <v>380</v>
-      </c>
-      <c r="F14" s="17">
-        <v>450</v>
-      </c>
-      <c r="G14" s="17">
-        <v>520</v>
-      </c>
-      <c r="H14" s="17">
-        <v>600</v>
-      </c>
-      <c r="I14" s="17">
-        <v>700</v>
-      </c>
-      <c r="J14" s="17">
-        <v>800</v>
-      </c>
-      <c r="K14" s="17">
-        <v>830</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="18">
-        <v>200</v>
-      </c>
-      <c r="C15" s="18">
-        <v>320</v>
-      </c>
-      <c r="D15" s="18">
-        <v>440</v>
-      </c>
-      <c r="E15" s="18">
-        <v>240</v>
-      </c>
-      <c r="F15" s="18">
-        <v>300</v>
-      </c>
-      <c r="G15" s="18">
-        <v>360</v>
-      </c>
-      <c r="H15" s="18">
-        <v>400</v>
-      </c>
-      <c r="I15" s="18">
-        <v>500</v>
-      </c>
-      <c r="J15" s="18">
-        <v>600</v>
-      </c>
-      <c r="K15" s="18">
-        <v>780</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="17">
-        <v>200</v>
-      </c>
-      <c r="C16" s="17">
-        <v>230</v>
-      </c>
-      <c r="D16" s="17">
-        <v>260</v>
-      </c>
-      <c r="E16" s="17">
-        <v>130</v>
-      </c>
-      <c r="F16" s="17">
-        <v>150</v>
-      </c>
-      <c r="G16" s="17">
-        <v>170</v>
-      </c>
-      <c r="H16" s="17">
-        <v>280</v>
-      </c>
-      <c r="I16" s="17">
-        <v>310</v>
-      </c>
-      <c r="J16" s="17">
-        <v>340</v>
-      </c>
-      <c r="K16" s="17">
-        <v>780</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="18">
-        <v>320</v>
-      </c>
-      <c r="C17" s="18">
-        <v>355</v>
-      </c>
-      <c r="D17" s="18">
-        <v>390</v>
-      </c>
-      <c r="E17" s="18">
-        <v>250</v>
-      </c>
-      <c r="F17" s="18">
-        <v>270</v>
-      </c>
-      <c r="G17" s="18">
-        <v>300</v>
-      </c>
-      <c r="H17" s="18">
-        <v>400</v>
-      </c>
-      <c r="I17" s="18">
-        <v>440</v>
-      </c>
-      <c r="J17" s="18">
-        <v>480</v>
-      </c>
-      <c r="K17" s="18">
-        <v>640</v>
-      </c>
-      <c r="L17" s="18">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="17">
-        <v>230</v>
-      </c>
-      <c r="C18" s="17">
-        <v>320</v>
-      </c>
-      <c r="D18" s="17">
-        <v>410</v>
-      </c>
-      <c r="E18" s="17">
-        <v>190</v>
-      </c>
-      <c r="F18" s="17">
-        <v>220</v>
-      </c>
-      <c r="G18" s="17">
-        <v>310</v>
-      </c>
-      <c r="H18" s="17">
-        <v>340</v>
-      </c>
-      <c r="I18" s="17">
-        <v>420</v>
-      </c>
-      <c r="J18" s="17">
-        <v>500</v>
-      </c>
-      <c r="K18" s="17">
-        <v>1</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="18">
-        <v>340</v>
-      </c>
-      <c r="C19" s="18">
-        <v>430</v>
-      </c>
-      <c r="D19" s="18">
-        <v>520</v>
-      </c>
-      <c r="E19" s="18">
-        <v>270</v>
-      </c>
-      <c r="F19" s="18">
-        <v>360</v>
-      </c>
-      <c r="G19" s="18">
-        <v>450</v>
-      </c>
-      <c r="H19" s="18">
-        <v>400</v>
-      </c>
-      <c r="I19" s="18">
-        <v>500</v>
-      </c>
-      <c r="J19" s="18">
-        <v>600</v>
-      </c>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="17">
-        <v>180</v>
-      </c>
-      <c r="C20" s="17">
-        <v>250</v>
-      </c>
-      <c r="D20" s="17">
-        <v>320</v>
-      </c>
-      <c r="E20" s="17">
-        <v>130</v>
-      </c>
-      <c r="F20" s="17">
-        <v>200</v>
-      </c>
-      <c r="G20" s="17">
-        <v>270</v>
-      </c>
-      <c r="H20" s="17">
-        <v>240</v>
-      </c>
-      <c r="I20" s="17">
-        <v>300</v>
-      </c>
-      <c r="J20" s="17">
-        <v>360</v>
-      </c>
-      <c r="K20" s="17">
-        <v>1200</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="18">
-        <v>130</v>
-      </c>
-      <c r="C21" s="18">
-        <v>200</v>
-      </c>
-      <c r="D21" s="18">
-        <v>270</v>
-      </c>
-      <c r="E21" s="18">
-        <v>100</v>
-      </c>
-      <c r="F21" s="18">
-        <v>160</v>
-      </c>
-      <c r="G21" s="18">
-        <v>220</v>
-      </c>
-      <c r="H21" s="18">
-        <v>200</v>
-      </c>
-      <c r="I21" s="18">
-        <v>250</v>
-      </c>
-      <c r="J21" s="18">
-        <v>360</v>
-      </c>
-      <c r="K21" s="18">
-        <v>1200</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="17">
-        <v>210</v>
-      </c>
-      <c r="C22" s="17">
-        <v>280</v>
-      </c>
-      <c r="D22" s="17">
-        <v>350</v>
-      </c>
-      <c r="E22" s="17">
-        <v>150</v>
-      </c>
-      <c r="F22" s="17">
-        <v>220</v>
-      </c>
-      <c r="G22" s="17">
-        <v>300</v>
-      </c>
-      <c r="H22" s="17">
-        <v>280</v>
-      </c>
-      <c r="I22" s="17">
-        <v>340</v>
-      </c>
-      <c r="J22" s="17">
-        <v>400</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1780</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="18">
-        <v>160</v>
-      </c>
-      <c r="C23" s="18">
-        <v>230</v>
-      </c>
-      <c r="D23" s="18">
-        <v>300</v>
-      </c>
-      <c r="E23" s="18">
-        <v>100</v>
-      </c>
-      <c r="F23" s="18">
-        <v>170</v>
-      </c>
-      <c r="G23" s="18">
-        <v>240</v>
-      </c>
-      <c r="H23" s="18">
-        <v>220</v>
-      </c>
-      <c r="I23" s="18">
-        <v>290</v>
-      </c>
-      <c r="J23" s="18">
-        <v>350</v>
-      </c>
-      <c r="K23" s="18">
-        <v>2260</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="17">
-        <v>200</v>
-      </c>
-      <c r="C24" s="17">
-        <v>270</v>
-      </c>
-      <c r="D24" s="17">
-        <v>320</v>
-      </c>
-      <c r="E24" s="17">
-        <v>150</v>
-      </c>
-      <c r="F24" s="17">
-        <v>210</v>
-      </c>
-      <c r="G24" s="17">
-        <v>260</v>
-      </c>
-      <c r="H24" s="17">
-        <v>250</v>
-      </c>
-      <c r="I24" s="17">
-        <v>320</v>
-      </c>
-      <c r="J24" s="17">
-        <v>360</v>
-      </c>
-      <c r="K24" s="17">
-        <v>1820</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="18">
-        <v>160</v>
-      </c>
-      <c r="C25" s="18">
-        <v>220</v>
-      </c>
-      <c r="D25" s="18">
-        <v>270</v>
-      </c>
-      <c r="E25" s="18">
-        <v>110</v>
-      </c>
-      <c r="F25" s="18">
-        <v>160</v>
-      </c>
-      <c r="G25" s="18">
-        <v>210</v>
-      </c>
-      <c r="H25" s="18">
-        <v>200</v>
-      </c>
-      <c r="I25" s="18">
-        <v>270</v>
-      </c>
-      <c r="J25" s="18">
-        <v>340</v>
-      </c>
-      <c r="K25" s="18">
-        <v>2290</v>
-      </c>
-      <c r="L25" s="18">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="17">
-        <v>140</v>
-      </c>
-      <c r="C26" s="17">
-        <v>180</v>
-      </c>
-      <c r="D26" s="17">
-        <v>220</v>
-      </c>
-      <c r="E26" s="17">
-        <v>105</v>
-      </c>
-      <c r="F26" s="17">
-        <v>155</v>
-      </c>
-      <c r="G26" s="17">
-        <v>180</v>
-      </c>
-      <c r="H26" s="17">
-        <v>160</v>
-      </c>
-      <c r="I26" s="17">
-        <v>200</v>
-      </c>
-      <c r="J26" s="17">
-        <v>240</v>
-      </c>
-      <c r="K26" s="17">
-        <v>1313</v>
-      </c>
-      <c r="L26" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="18">
-        <v>100</v>
-      </c>
-      <c r="C27" s="18">
-        <v>135</v>
-      </c>
-      <c r="D27" s="18">
-        <v>170</v>
-      </c>
-      <c r="E27" s="18">
-        <v>80</v>
-      </c>
-      <c r="F27" s="18">
-        <v>110</v>
-      </c>
-      <c r="G27" s="18">
-        <v>140</v>
-      </c>
-      <c r="H27" s="18">
-        <v>130</v>
-      </c>
-      <c r="I27" s="18">
-        <v>160</v>
-      </c>
-      <c r="J27" s="18">
-        <v>190</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1313</v>
-      </c>
-      <c r="L27" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="17">
-        <v>100</v>
-      </c>
-      <c r="C28" s="17">
-        <v>160</v>
-      </c>
-      <c r="D28" s="17">
-        <v>220</v>
-      </c>
-      <c r="E28" s="17">
-        <v>90</v>
-      </c>
-      <c r="F28" s="17">
-        <v>130</v>
-      </c>
-      <c r="G28" s="17">
-        <v>180</v>
-      </c>
-      <c r="H28" s="17">
-        <v>125</v>
-      </c>
-      <c r="I28" s="17">
-        <v>185</v>
-      </c>
-      <c r="J28" s="17">
-        <v>245</v>
-      </c>
-      <c r="K28" s="17">
-        <v>2500</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="18">
-        <v>80</v>
-      </c>
-      <c r="C29" s="18">
-        <v>130</v>
-      </c>
-      <c r="D29" s="18">
-        <v>180</v>
-      </c>
-      <c r="E29" s="18">
-        <v>70</v>
-      </c>
-      <c r="F29" s="18">
-        <v>110</v>
-      </c>
-      <c r="G29" s="18">
-        <v>160</v>
-      </c>
-      <c r="H29" s="18">
-        <v>100</v>
-      </c>
-      <c r="I29" s="18">
-        <v>150</v>
-      </c>
-      <c r="J29" s="18">
-        <v>200</v>
-      </c>
-      <c r="K29" s="18">
-        <v>2220</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="17">
-        <v>180</v>
-      </c>
-      <c r="C30" s="17">
-        <v>250</v>
-      </c>
-      <c r="D30" s="17">
-        <v>320</v>
-      </c>
-      <c r="E30" s="17">
-        <v>120</v>
-      </c>
-      <c r="F30" s="17">
-        <v>190</v>
-      </c>
-      <c r="G30" s="17">
-        <v>240</v>
-      </c>
-      <c r="H30" s="17">
-        <v>220</v>
-      </c>
-      <c r="I30" s="17">
-        <v>300</v>
-      </c>
-      <c r="J30" s="17">
-        <v>380</v>
-      </c>
-      <c r="K30" s="17">
-        <v>1516</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="18">
-        <v>110</v>
-      </c>
-      <c r="C31" s="18">
-        <v>200</v>
-      </c>
-      <c r="D31" s="18">
-        <v>280</v>
-      </c>
-      <c r="E31" s="18">
-        <v>110</v>
-      </c>
-      <c r="F31" s="18">
-        <v>150</v>
-      </c>
-      <c r="G31" s="18">
-        <v>200</v>
-      </c>
-      <c r="H31" s="18">
-        <v>190</v>
-      </c>
-      <c r="I31" s="18">
-        <v>250</v>
-      </c>
-      <c r="J31" s="18">
-        <v>310</v>
-      </c>
-      <c r="K31" s="18">
-        <v>2130</v>
-      </c>
-      <c r="L31" s="18">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="17">
-        <v>95</v>
-      </c>
-      <c r="C32" s="17">
-        <v>145</v>
-      </c>
-      <c r="D32" s="17">
-        <v>195</v>
-      </c>
-      <c r="E32" s="17">
-        <v>85</v>
-      </c>
-      <c r="F32" s="17">
-        <v>125</v>
-      </c>
-      <c r="G32" s="17">
-        <v>170</v>
-      </c>
-      <c r="H32" s="17">
-        <v>115</v>
-      </c>
-      <c r="I32" s="17">
-        <v>165</v>
-      </c>
-      <c r="J32" s="17">
-        <v>215</v>
-      </c>
-      <c r="K32" s="17">
-        <v>1410</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="18">
-        <v>60</v>
-      </c>
-      <c r="C33" s="18">
-        <v>110</v>
-      </c>
-      <c r="D33" s="18">
-        <v>160</v>
-      </c>
-      <c r="E33" s="18">
-        <v>40</v>
-      </c>
-      <c r="F33" s="18">
-        <v>80</v>
-      </c>
-      <c r="G33" s="18">
-        <v>120</v>
-      </c>
-      <c r="H33" s="18">
-        <v>100</v>
-      </c>
-      <c r="I33" s="18">
-        <v>140</v>
-      </c>
-      <c r="J33" s="18">
-        <v>180</v>
-      </c>
-      <c r="K33" s="18">
-        <v>1820</v>
-      </c>
-      <c r="L33" s="18">
+      <c r="L33" s="21">
         <v>0.26</v>
       </c>
     </row>
@@ -6958,113 +7279,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>109</v>
+      <c r="A1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>112</v>
+      <c r="A2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="A3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="24">
         <v>24000</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>115</v>
+      <c r="C3" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="22">
         <v>2.2</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>117</v>
+      <c r="C4" s="22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="24">
         <v>118</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="21">
-        <v>118</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>125</v>
+      <c r="C7" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>128</v>
+      <c r="A8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="24">
         <v>5000</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>130</v>
+      <c r="C9" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="22">
         <v>2.2</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>132</v>
+      <c r="C10" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,7 +14,8 @@
     <sheet name="Plan90" sheetId="5" r:id="rId5"/>
     <sheet name="Plan45" sheetId="6" r:id="rId6"/>
     <sheet name="Drehen" sheetId="7" r:id="rId7"/>
-    <sheet name="Einstellungen" sheetId="8" r:id="rId8"/>
+    <sheet name="Gewinde Metrisch" sheetId="8" r:id="rId8"/>
+    <sheet name="Einstellungen" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
@@ -80,8 +81,73 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <t>Das Komma muss als Punkt geschrieben werden!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
   <si>
     <t>Material</t>
   </si>
@@ -420,6 +486,48 @@
   </si>
   <si>
     <t>Laengs Vc max SL</t>
+  </si>
+  <si>
+    <t>Steigung -&gt;</t>
+  </si>
+  <si>
+    <t>INOX</t>
+  </si>
+  <si>
+    <t>Testmaterial 6</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2.5</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M16</t>
   </si>
   <si>
     <t>Name</t>
@@ -513,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -545,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,6 +722,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fillId="2" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fillId="3" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fillId="4" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1">
@@ -4735,7 +4861,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
@@ -6012,7 +6138,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>104</v>
@@ -7269,6 +7395,334 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.2642857142857"/>
+    <col min="2" max="2" width="10.7142857142857"/>
+    <col min="3" max="3" width="10.7142857142857"/>
+    <col min="4" max="4" width="10.7142857142857"/>
+    <col min="5" max="5" width="10.7142857142857"/>
+    <col min="6" max="6" width="10.7142857142857"/>
+    <col min="7" max="7" width="10.7142857142857"/>
+    <col min="8" max="8" width="10.7142857142857"/>
+    <col min="9" max="9" width="10.7142857142857"/>
+    <col min="10" max="10" width="10.7142857142857"/>
+    <col min="11" max="11" width="10.7142857142857"/>
+    <col min="12" max="12" width="10.7142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="K2" s="25">
+        <v>2</v>
+      </c>
+      <c r="L2" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22">
+        <v>12</v>
+      </c>
+      <c r="E3" s="22">
+        <v>12</v>
+      </c>
+      <c r="F3" s="22">
+        <v>12</v>
+      </c>
+      <c r="G3" s="22">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22">
+        <v>12</v>
+      </c>
+      <c r="I3" s="22">
+        <v>12</v>
+      </c>
+      <c r="J3" s="22">
+        <v>12</v>
+      </c>
+      <c r="K3" s="22">
+        <v>12</v>
+      </c>
+      <c r="L3" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24">
+        <v>11</v>
+      </c>
+      <c r="I4" s="24">
+        <v>11</v>
+      </c>
+      <c r="J4" s="24">
+        <v>11</v>
+      </c>
+      <c r="K4" s="24">
+        <v>11</v>
+      </c>
+      <c r="L4" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="22">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22">
+        <v>12</v>
+      </c>
+      <c r="E5" s="22">
+        <v>12</v>
+      </c>
+      <c r="F5" s="22">
+        <v>12</v>
+      </c>
+      <c r="G5" s="22">
+        <v>12</v>
+      </c>
+      <c r="H5" s="22">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22">
+        <v>12</v>
+      </c>
+      <c r="J5" s="22">
+        <v>12</v>
+      </c>
+      <c r="K5" s="22">
+        <v>12</v>
+      </c>
+      <c r="L5" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="24">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24">
+        <v>7</v>
+      </c>
+      <c r="E6" s="24">
+        <v>7</v>
+      </c>
+      <c r="F6" s="24">
+        <v>7</v>
+      </c>
+      <c r="G6" s="24">
+        <v>7</v>
+      </c>
+      <c r="H6" s="24">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24">
+        <v>7</v>
+      </c>
+      <c r="J6" s="24">
+        <v>7</v>
+      </c>
+      <c r="K6" s="24">
+        <v>7</v>
+      </c>
+      <c r="L6" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4</v>
+      </c>
+      <c r="G7" s="22">
+        <v>4</v>
+      </c>
+      <c r="H7" s="22">
+        <v>4</v>
+      </c>
+      <c r="I7" s="22">
+        <v>4</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4</v>
+      </c>
+      <c r="K7" s="22">
+        <v>4</v>
+      </c>
+      <c r="L7" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="24">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24">
+        <v>15</v>
+      </c>
+      <c r="E8" s="24">
+        <v>15</v>
+      </c>
+      <c r="F8" s="24">
+        <v>15</v>
+      </c>
+      <c r="G8" s="24">
+        <v>15</v>
+      </c>
+      <c r="H8" s="24">
+        <v>15</v>
+      </c>
+      <c r="I8" s="24">
+        <v>15</v>
+      </c>
+      <c r="J8" s="24">
+        <v>15</v>
+      </c>
+      <c r="K8" s="24">
+        <v>15</v>
+      </c>
+      <c r="L8" s="24">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7279,113 +7733,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>115</v>
+      <c r="A1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="28">
+        <v>24000</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2.2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="28">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="24">
-        <v>24000</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="C7" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="26">
         <v>2.2</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="24">
-        <v>118</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="24">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="22">
-        <v>2.2</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>138</v>
+      <c r="C10" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
